--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1608.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1608.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.157927944154797</v>
+        <v>0.5496483445167542</v>
       </c>
       <c r="B1">
-        <v>2.304606139562648</v>
+        <v>1.077258825302124</v>
       </c>
       <c r="C1">
-        <v>5.027160519554609</v>
+        <v>5.185221672058105</v>
       </c>
       <c r="D1">
-        <v>2.413303371920915</v>
+        <v>3.982270240783691</v>
       </c>
       <c r="E1">
-        <v>1.064665145044962</v>
+        <v>1.056949496269226</v>
       </c>
     </row>
   </sheetData>
